--- a/LuuFile_Excel/DanhSachPhieuDatPhong.xlsx
+++ b/LuuFile_Excel/DanhSachPhieuDatPhong.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="94">
   <si>
     <t/>
   </si>
@@ -47,6 +47,90 @@
     <t>Trạng Thái</t>
   </si>
   <si>
+    <t>PDP2007150001</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>Lê Tuyết Nhi</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn A</t>
+  </si>
+  <si>
+    <t>2020-07-15 17:00</t>
+  </si>
+  <si>
+    <t>Đặt trực tiếp</t>
+  </si>
+  <si>
+    <t>Chưa TT</t>
+  </si>
+  <si>
+    <t>PDP2008010001</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t>2020-08-01 18:00</t>
+  </si>
+  <si>
+    <t>PDP2009010001</t>
+  </si>
+  <si>
+    <t>403</t>
+  </si>
+  <si>
+    <t>2020-09-01 15:00</t>
+  </si>
+  <si>
+    <t>2020-09-01 22:00</t>
+  </si>
+  <si>
+    <t>Đặt trước</t>
+  </si>
+  <si>
+    <t>PDP2107150001</t>
+  </si>
+  <si>
+    <t>2021-07-15 17:00</t>
+  </si>
+  <si>
+    <t>PDP2108010001</t>
+  </si>
+  <si>
+    <t>2021-08-01 18:00</t>
+  </si>
+  <si>
+    <t>PDP2109010001</t>
+  </si>
+  <si>
+    <t>2021-09-01 22:00</t>
+  </si>
+  <si>
+    <t>PDP2207150001</t>
+  </si>
+  <si>
+    <t>2022-07-15 17:00</t>
+  </si>
+  <si>
+    <t>PDP2208010001</t>
+  </si>
+  <si>
+    <t>2022-08-01 12:00</t>
+  </si>
+  <si>
+    <t>2022-08-01 18:00</t>
+  </si>
+  <si>
+    <t>PDP2209010001</t>
+  </si>
+  <si>
+    <t>2022-09-01 22:00</t>
+  </si>
+  <si>
     <t>PDP2310100001</t>
   </si>
   <si>
@@ -62,40 +146,154 @@
     <t>2023-10-10 11:00</t>
   </si>
   <si>
-    <t>Đặt trực tiếp</t>
-  </si>
-  <si>
-    <t>Đã TT</t>
-  </si>
-  <si>
     <t>PDP2310100002</t>
   </si>
   <si>
-    <t>306</t>
-  </si>
-  <si>
-    <t>PDP2312010001</t>
-  </si>
-  <si>
-    <t>301</t>
+    <t>PDP2310100003</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>Trần Thị Lan</t>
+  </si>
+  <si>
+    <t>2023-10-10 15:00</t>
+  </si>
+  <si>
+    <t>PDP2310100004</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>Nguyễn Chí Nam</t>
+  </si>
+  <si>
+    <t>2023-10-10 13:00</t>
+  </si>
+  <si>
+    <t>2023-10-10 18:00</t>
+  </si>
+  <si>
+    <t>PDP2310100005</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>2023-10-10 18:30</t>
+  </si>
+  <si>
+    <t>PDP2310110001</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t>Phan Văn Đức</t>
+  </si>
+  <si>
+    <t>Dương Văn Tiến</t>
+  </si>
+  <si>
+    <t>2023-10-11 08:00</t>
+  </si>
+  <si>
+    <t>PDP2310110002</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>Nguyễn Tăng Nhật Minh</t>
+  </si>
+  <si>
+    <t>2023-10-11 20:00</t>
+  </si>
+  <si>
+    <t>PDP2310120001</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Bá Nhân</t>
+  </si>
+  <si>
+    <t>Trần Thị Thu Thủy</t>
+  </si>
+  <si>
+    <t>2023-10-12 20:00</t>
+  </si>
+  <si>
+    <t>PDP2310130001</t>
+  </si>
+  <si>
+    <t>Vũ Thị Minh</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Tân</t>
+  </si>
+  <si>
+    <t>2023-10-13 15:00</t>
+  </si>
+  <si>
+    <t>PDP2310140001</t>
+  </si>
+  <si>
+    <t>105</t>
   </si>
   <si>
     <t>Trần Văn Sơn</t>
   </si>
   <si>
-    <t>Trần Trọng Tín</t>
-  </si>
-  <si>
-    <t>2023-12-01 10:47</t>
-  </si>
-  <si>
-    <t>PDP2312010002</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>2023-12-01 10:52</t>
+    <t>Trần Thị Lan Chi</t>
+  </si>
+  <si>
+    <t>2023-10-14 12:00</t>
+  </si>
+  <si>
+    <t>PDP2310150001</t>
+  </si>
+  <si>
+    <t>Phạm Gia Khải</t>
+  </si>
+  <si>
+    <t>2023-10-15 21:00</t>
+  </si>
+  <si>
+    <t>PDP2310200001</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>Lê Thị Đào</t>
+  </si>
+  <si>
+    <t>Lê Văn Việt</t>
+  </si>
+  <si>
+    <t>2023-11-15 16:00</t>
+  </si>
+  <si>
+    <t>2023-11-15 16:50</t>
+  </si>
+  <si>
+    <t>PDP2312050001</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>2023-12-05 15:13</t>
+  </si>
+  <si>
+    <t>2023-12-05 15:35</t>
+  </si>
+  <si>
+    <t>PDP2312050002</t>
+  </si>
+  <si>
+    <t>2023-12-05 15:14</t>
   </si>
 </sst>
 </file>
@@ -148,7 +346,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A3:J7"/>
+  <dimension ref="A3:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -209,7 +407,7 @@
         <v>15</v>
       </c>
       <c r="H4" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="I4" t="s">
         <v>16</v>
@@ -235,13 +433,13 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H5" t="n">
-        <v>17.0</v>
+        <v>14.0</v>
       </c>
       <c r="I5" t="s">
         <v>16</v>
@@ -255,28 +453,28 @@
         <v>3.0</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
         <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
       </c>
       <c r="G6" t="s">
         <v>24</v>
       </c>
       <c r="H6" t="n">
-        <v>1.0</v>
+        <v>21.0</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J6" t="s">
         <v>17</v>
@@ -287,16 +485,16 @@
         <v>4.0</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -305,12 +503,620 @@
         <v>27</v>
       </c>
       <c r="H7" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>5.0</v>
       </c>
-      <c r="I7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" t="s">
+        <v>87</v>
+      </c>
+      <c r="H24" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>25</v>
+      </c>
+      <c r="J25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" t="s">
+        <v>93</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
         <v>17</v>
       </c>
     </row>
